--- a/Analisis Estadistico/Analisis Estadistico - TP4.xlsx
+++ b/Analisis Estadistico/Analisis Estadistico - TP4.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaneze\workspace\TP4ColoreoDeGrafos\Analisis Estadistico\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -36,8 +41,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,16 +50,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -67,21 +372,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -106,40 +396,158 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -151,27 +559,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -198,7 +633,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -207,14 +642,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -250,107 +688,88 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$3:$A$16</c:f>
+              <c:f>Hoja1!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$16</c:f>
+              <c:f>Hoja1!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>657</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2738</c:v>
+                  <c:v>1025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4138</c:v>
+                  <c:v>2875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2033</c:v>
+                  <c:v>3538</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>360</c:v>
+                  <c:v>1882</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-191F-4084-A8F4-1827362C4DE3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -371,107 +790,88 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$3:$A$16</c:f>
+              <c:f>Hoja1!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$3:$C$16</c:f>
+              <c:f>Hoja1!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2893</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3536</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1008</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2556</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3306</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-191F-4084-A8F4-1827362C4DE3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -492,107 +892,88 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$3:$A$16</c:f>
+              <c:f>Hoja1!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$3:$D$16</c:f>
+              <c:f>Hoja1!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>939</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122</c:v>
+                  <c:v>2975</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>848</c:v>
+                  <c:v>3451</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2851</c:v>
+                  <c:v>1940</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3553</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1996</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>563</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-191F-4084-A8F4-1827362C4DE3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -602,7 +983,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="262832128"/>
         <c:axId val="262833664"/>
@@ -644,7 +1024,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -660,9 +1039,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -684,7 +1063,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$20</c:f>
+              <c:f>Hoja1!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -698,144 +1077,113 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$21:$A$39</c:f>
+              <c:f>Hoja1!$A$17:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>102</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>103</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>106</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$21:$B$39</c:f>
+              <c:f>Hoja1!$B$17:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>196</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>799</c:v>
+                  <c:v>716</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1873</c:v>
+                  <c:v>1631</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2779</c:v>
+                  <c:v>2590</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2424</c:v>
+                  <c:v>2554</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1343</c:v>
+                  <c:v>1475</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>457</c:v>
+                  <c:v>616</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>91</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-547C-4CB5-83EA-FF9C8D02B639}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$20</c:f>
+              <c:f>Hoja1!$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -849,144 +1197,113 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$21:$A$39</c:f>
+              <c:f>Hoja1!$A$17:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>102</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>103</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>106</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$21:$C$39</c:f>
+              <c:f>Hoja1!$C$17:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2390</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>597</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1476</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2424</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2507</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1726</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>817</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-547C-4CB5-83EA-FF9C8D02B639}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$20</c:f>
+              <c:f>Hoja1!$D$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1000,137 +1317,106 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$21:$A$39</c:f>
+              <c:f>Hoja1!$A$17:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>102</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>103</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>106</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$21:$D$39</c:f>
+              <c:f>Hoja1!$D$17:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1676</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2496</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1546</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>682</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1768</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2571</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1496</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>616</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-547C-4CB5-83EA-FF9C8D02B639}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1140,7 +1426,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="263248896"/>
         <c:axId val="263329664"/>
@@ -1182,7 +1467,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1199,9 +1483,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1223,7 +1507,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$43</c:f>
+              <c:f>Hoja1!$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1237,222 +1521,173 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$44:$A$75</c:f>
+              <c:f>Hoja1!$A$34:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>192</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>193</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>194</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>195</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>196</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>197</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>198</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>199</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>201</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>202</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>203</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>204</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>205</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>206</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>207</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>208</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>209</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>210</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>211</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>212</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>213</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="27">
                   <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$44:$B$75</c:f>
+              <c:f>Hoja1!$B$34:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>262</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>643</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1135</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1664</c:v>
+                  <c:v>702</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1904</c:v>
+                  <c:v>1082</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1744</c:v>
+                  <c:v>1358</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1285</c:v>
+                  <c:v>1554</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>704</c:v>
+                  <c:v>1443</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>334</c:v>
+                  <c:v>1223</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>125</c:v>
+                  <c:v>875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32F1-4F5B-A1AE-E8F676FD0C28}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$43</c:f>
+              <c:f>Hoja1!$C$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1466,222 +1701,173 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$44:$A$75</c:f>
+              <c:f>Hoja1!$A$34:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>192</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>193</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>194</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>195</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>196</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>197</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>198</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>199</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>201</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>202</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>203</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>204</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>205</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>206</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>207</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>208</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>209</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>210</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>211</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>212</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>213</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="27">
                   <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$44:$C$75</c:f>
+              <c:f>Hoja1!$C$34:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1569</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1506</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>735</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1088</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1386</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1512</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1255</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>847</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-32F1-4F5B-A1AE-E8F676FD0C28}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$43</c:f>
+              <c:f>Hoja1!$D$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1695,215 +1881,166 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$44:$A$75</c:f>
+              <c:f>Hoja1!$A$34:$A$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>192</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>193</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>194</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>195</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>196</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>197</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>198</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>199</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>201</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>202</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>203</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>204</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>205</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>206</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>207</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>208</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>209</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>210</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>211</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>212</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>213</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="27">
                   <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$44:$D$75</c:f>
+              <c:f>Hoja1!$D$34:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1352</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1444</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>417</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>680</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1065</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1396</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1531</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1238</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>884</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>489</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>107</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-32F1-4F5B-A1AE-E8F676FD0C28}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1913,7 +2050,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="269717888"/>
         <c:axId val="269719424"/>
@@ -1955,8 +2091,17 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr u="none"/>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1971,9 +2116,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1995,7 +2140,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$79</c:f>
+              <c:f>Hoja1!$B$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2009,10 +2154,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$80:$A$96</c:f>
+              <c:f>Hoja1!$A$61:$A$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>334</c:v>
                 </c:pt>
@@ -2063,78 +2208,89 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$80:$B$96</c:f>
+              <c:f>Hoja1!$B$61:$B$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>776</c:v>
+                  <c:v>502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1737</c:v>
+                  <c:v>1516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2107</c:v>
+                  <c:v>2066</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1937</c:v>
+                  <c:v>2022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1414</c:v>
+                  <c:v>1517</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>846</c:v>
+                  <c:v>1083</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>518</c:v>
+                  <c:v>595</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>301</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>149</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>66</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54F1-4F74-A1A7-1FF502684AB4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$79</c:f>
+              <c:f>Hoja1!$C$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2148,10 +2304,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$80:$A$96</c:f>
+              <c:f>Hoja1!$A$61:$A$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>334</c:v>
                 </c:pt>
@@ -2202,78 +2358,89 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$80:$C$96</c:f>
+              <c:f>Hoja1!$C$61:$C$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>119</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>762</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1705</c:v>
+                  <c:v>1458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2150</c:v>
+                  <c:v>2070</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1817</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1398</c:v>
+                  <c:v>1617</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>919</c:v>
+                  <c:v>1010</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>572</c:v>
+                  <c:v>636</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>299</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>137</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>69</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-54F1-4F74-A1A7-1FF502684AB4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$79</c:f>
+              <c:f>Hoja1!$D$60</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2287,10 +2454,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$80:$A$96</c:f>
+              <c:f>Hoja1!$A$61:$A$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>334</c:v>
                 </c:pt>
@@ -2341,71 +2508,82 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$80:$D$96</c:f>
+              <c:f>Hoja1!$D$61:$D$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>776</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1777</c:v>
+                  <c:v>1479</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2107</c:v>
+                  <c:v>2009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1846</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1379</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>907</c:v>
+                  <c:v>1099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>540</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>289</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>68</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-54F1-4F74-A1A7-1FF502684AB4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2415,7 +2593,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="208149888"/>
         <c:axId val="236917888"/>
@@ -2457,7 +2634,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2474,9 +2650,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2498,7 +2674,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$101</c:f>
+              <c:f>Hoja1!$B$83</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2512,7 +2688,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$102:$A$116</c:f>
+              <c:f>Hoja1!$A$84:$A$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2566,51 +2742,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$102:$B$116</c:f>
+              <c:f>Hoja1!$B$84:$B$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1089</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2612</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2521</c:v>
+                  <c:v>2669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1730</c:v>
+                  <c:v>2107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1046</c:v>
+                  <c:v>1379</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>536</c:v>
+                  <c:v>776</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>278</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -2619,13 +2795,18 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35C5-4745-BF7D-C1ABFFEE1400}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$101</c:f>
+              <c:f>Hoja1!$C$83</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2639,7 +2820,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$102:$A$116</c:f>
+              <c:f>Hoja1!$A$84:$A$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2693,66 +2874,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$102:$C$116</c:f>
+              <c:f>Hoja1!$C$84:$C$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1115</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2578</c:v>
+                  <c:v>1965</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2539</c:v>
+                  <c:v>2695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1671</c:v>
+                  <c:v>2166</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1052</c:v>
+                  <c:v>1405</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>563</c:v>
+                  <c:v>756</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>263</c:v>
+                  <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>110</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-35C5-4745-BF7D-C1ABFFEE1400}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$101</c:f>
+              <c:f>Hoja1!$D$83</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2766,7 +2952,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$102:$A$116</c:f>
+              <c:f>Hoja1!$A$84:$A$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2820,59 +3006,64 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$102:$D$116</c:f>
+              <c:f>Hoja1!$D$84:$D$98</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1083</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2617</c:v>
+                  <c:v>2105</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2470</c:v>
+                  <c:v>2669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1672</c:v>
+                  <c:v>2123</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1047</c:v>
+                  <c:v>1342</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>602</c:v>
+                  <c:v>792</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>280</c:v>
+                  <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>129</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-35C5-4745-BF7D-C1ABFFEE1400}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2882,7 +3073,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="238671744"/>
         <c:axId val="260173824"/>
@@ -2924,7 +3114,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2952,12 +3141,18 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="5 Gráfico"/>
+        <xdr:cNvPr id="6" name="5 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2976,18 +3171,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314323</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="6 Gráfico"/>
+        <xdr:cNvPr id="7" name="6 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3006,18 +3207,24 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="7 Gráfico"/>
+        <xdr:cNvPr id="8" name="7 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3036,24 +3243,30 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="1 CuadroTexto"/>
+        <xdr:cNvPr id="2" name="1 CuadroTexto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10315575" y="571500"/>
-          <a:ext cx="904875" cy="561975"/>
+          <a:off x="10429875" y="381000"/>
+          <a:ext cx="904875" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3105,26 +3318,106 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="13 Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>454064</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>120661</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="15 CuadroTexto"/>
+        <xdr:cNvPr id="9" name="9 CuadroTexto">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2BBAA3B-8F8A-4C05-8976-29C4F279C9DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11010900" y="9744075"/>
-          <a:ext cx="904875" cy="561975"/>
+          <a:off x="11344275" y="6334125"/>
+          <a:ext cx="777914" cy="454036"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3155,85 +3448,119 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p>
           <a:r>
             <a:rPr lang="es-AR" sz="1100" b="1"/>
             <a:t>Aleatorio</a:t>
           </a:r>
-          <a:br>
-            <a:rPr lang="es-AR" sz="1100" b="1"/>
-          </a:br>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="es-AR" sz="1100" b="1"/>
             <a:t>90%</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-AR" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-AR" sz="1100" b="1"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="2 Gráfico"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="13 Gráfico"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3775,7 +4102,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3808,9 +4135,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3843,6 +4187,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4018,11 +4379,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P92" sqref="P92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4053,1530 +4414,1279 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>61</v>
-      </c>
-      <c r="B3" s="6">
-        <v>48</v>
+        <v>63</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>62</v>
-      </c>
-      <c r="B4" s="6">
-        <v>657</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="B4" s="5">
+        <v>155</v>
+      </c>
+      <c r="C4" s="5">
+        <v>137</v>
       </c>
       <c r="D4" s="5">
-        <v>0</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>63</v>
-      </c>
-      <c r="B5" s="6">
-        <v>2738</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1025</v>
+      </c>
+      <c r="C5" s="5">
+        <v>989</v>
       </c>
       <c r="D5" s="5">
-        <v>4</v>
+        <v>939</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>64</v>
-      </c>
-      <c r="B6" s="6">
-        <v>4138</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2875</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2893</v>
       </c>
       <c r="D6" s="5">
-        <v>122</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>65</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2033</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3538</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3536</v>
       </c>
       <c r="D7" s="5">
-        <v>848</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>66</v>
-      </c>
-      <c r="B8" s="6">
-        <v>360</v>
-      </c>
-      <c r="C8" s="4">
-        <v>17</v>
+        <v>68</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1882</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1904</v>
       </c>
       <c r="D8" s="5">
-        <v>2851</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>67</v>
-      </c>
-      <c r="B9" s="6">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4">
-        <v>188</v>
+        <v>69</v>
+      </c>
+      <c r="B9" s="5">
+        <v>466</v>
+      </c>
+      <c r="C9" s="5">
+        <v>460</v>
       </c>
       <c r="D9" s="5">
-        <v>3553</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>68</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1008</v>
+        <v>70</v>
+      </c>
+      <c r="B10" s="5">
+        <v>54</v>
+      </c>
+      <c r="C10" s="5">
+        <v>73</v>
       </c>
       <c r="D10" s="5">
-        <v>1996</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>69</v>
-      </c>
-      <c r="B11" s="6">
+        <v>71</v>
+      </c>
+      <c r="B11" s="5">
         <v>0</v>
       </c>
-      <c r="C11" s="4">
-        <v>2556</v>
+      <c r="C11" s="5">
+        <v>1</v>
       </c>
       <c r="D11" s="5">
-        <v>563</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>70</v>
-      </c>
-      <c r="B12" s="6">
+        <v>72</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
         <v>0</v>
       </c>
-      <c r="C12" s="4">
-        <v>3306</v>
-      </c>
-      <c r="D12" s="5">
-        <v>58</v>
+      <c r="D12" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>71</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="B13">
+        <f>SUM(B3:B12)</f>
+        <v>10000</v>
+      </c>
+      <c r="C13" s="1">
+        <f>SUM(C3:C12)</f>
+        <v>10000</v>
+      </c>
+      <c r="D13" s="1">
+        <f>SUM(D3:D12)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="4">
-        <v>2100</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>72</v>
-      </c>
-      <c r="B14" s="6">
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>98</v>
+      </c>
+      <c r="B17" s="5">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>99</v>
+      </c>
+      <c r="B18" s="5">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>100</v>
+      </c>
+      <c r="B19" s="5">
+        <v>176</v>
+      </c>
+      <c r="C19" s="5">
+        <v>204</v>
+      </c>
+      <c r="D19" s="5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>101</v>
+      </c>
+      <c r="B20" s="5">
+        <v>716</v>
+      </c>
+      <c r="C20" s="5">
+        <v>716</v>
+      </c>
+      <c r="D20" s="5">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>102</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1631</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1631</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>103</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2590</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2584</v>
+      </c>
+      <c r="D22" s="5">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>104</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2554</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2390</v>
+      </c>
+      <c r="D23" s="5">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>105</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1475</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1601</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>106</v>
+      </c>
+      <c r="B25" s="5">
+        <v>616</v>
+      </c>
+      <c r="C25" s="5">
+        <v>626</v>
+      </c>
+      <c r="D25" s="5">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>107</v>
+      </c>
+      <c r="B26" s="5">
+        <v>180</v>
+      </c>
+      <c r="C26" s="5">
+        <v>195</v>
+      </c>
+      <c r="D26" s="5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>108</v>
+      </c>
+      <c r="B27" s="5">
+        <v>25</v>
+      </c>
+      <c r="C27" s="5">
+        <v>22</v>
+      </c>
+      <c r="D27" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>109</v>
+      </c>
+      <c r="B28" s="5">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>110</v>
+      </c>
+      <c r="B29" s="5">
         <v>0</v>
       </c>
-      <c r="C14" s="4">
-        <v>700</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C29" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>73</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>SUM(B17:B29)</f>
+        <v>10000</v>
+      </c>
+      <c r="C30" s="1">
+        <f>SUM(C17:C29)</f>
+        <v>10000</v>
+      </c>
+      <c r="D30" s="1">
+        <f>SUM(D17:D29)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="4">
-        <v>115</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>74</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <f>SUM(B3:B16)</f>
-        <v>10000</v>
-      </c>
-      <c r="C17" s="1">
-        <f>SUM(C3:C16)</f>
-        <v>10000</v>
-      </c>
-      <c r="D17" s="1">
-        <f>SUM(D3:D16)</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>95</v>
-      </c>
-      <c r="B21" s="8">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>96</v>
-      </c>
-      <c r="B22" s="8">
-        <v>29</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>97</v>
-      </c>
-      <c r="B23" s="8">
-        <v>196</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>98</v>
-      </c>
-      <c r="B24" s="8">
-        <v>799</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>99</v>
-      </c>
-      <c r="B25" s="8">
-        <v>1873</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>100</v>
-      </c>
-      <c r="B26" s="8">
-        <v>2779</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>101</v>
-      </c>
-      <c r="B27" s="8">
-        <v>2424</v>
-      </c>
-      <c r="C27" s="4">
-        <v>2</v>
-      </c>
-      <c r="D27" s="7">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>102</v>
-      </c>
-      <c r="B28" s="8">
-        <v>1343</v>
-      </c>
-      <c r="C28" s="4">
-        <v>24</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>103</v>
-      </c>
-      <c r="B29" s="8">
-        <v>457</v>
-      </c>
-      <c r="C29" s="4">
-        <v>151</v>
-      </c>
-      <c r="D29" s="7">
-        <v>2571</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>104</v>
-      </c>
-      <c r="B30" s="8">
-        <v>91</v>
-      </c>
-      <c r="C30" s="4">
-        <v>597</v>
-      </c>
-      <c r="D30" s="7">
-        <v>2452</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>105</v>
-      </c>
-      <c r="B31" s="8">
-        <v>8</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1476</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1496</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>106</v>
-      </c>
-      <c r="B32" s="8">
-        <v>0</v>
-      </c>
-      <c r="C32" s="4">
-        <v>2424</v>
-      </c>
-      <c r="D32" s="7">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>107</v>
-      </c>
-      <c r="B33" s="8">
-        <v>0</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2507</v>
-      </c>
-      <c r="D33" s="7">
-        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>108</v>
-      </c>
-      <c r="B34" s="8">
+        <v>197</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
         <v>0</v>
       </c>
-      <c r="C34" s="4">
-        <v>1726</v>
-      </c>
-      <c r="D34" s="7">
-        <v>19</v>
+      <c r="D34" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>109</v>
-      </c>
-      <c r="B35" s="8">
-        <v>0</v>
-      </c>
-      <c r="C35" s="4">
-        <v>817</v>
-      </c>
-      <c r="D35" s="7">
-        <v>2</v>
+        <v>198</v>
+      </c>
+      <c r="B35" s="5">
+        <v>4</v>
+      </c>
+      <c r="C35" s="5">
+        <v>4</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>110</v>
-      </c>
-      <c r="B36" s="8">
-        <v>0</v>
-      </c>
-      <c r="C36" s="4">
-        <v>233</v>
-      </c>
-      <c r="D36" s="7">
-        <v>0</v>
+        <v>199</v>
+      </c>
+      <c r="B36" s="5">
+        <v>11</v>
+      </c>
+      <c r="C36" s="5">
+        <v>8</v>
+      </c>
+      <c r="D36" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>111</v>
-      </c>
-      <c r="B37" s="8">
-        <v>0</v>
-      </c>
-      <c r="C37" s="4">
-        <v>41</v>
-      </c>
-      <c r="D37" s="7">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="B37" s="5">
+        <v>25</v>
+      </c>
+      <c r="C37" s="5">
+        <v>28</v>
+      </c>
+      <c r="D37" s="5">
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>112</v>
-      </c>
-      <c r="B38" s="8">
-        <v>0</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7">
-        <v>0</v>
+        <v>201</v>
+      </c>
+      <c r="B38" s="5">
+        <v>70</v>
+      </c>
+      <c r="C38" s="5">
+        <v>77</v>
+      </c>
+      <c r="D38" s="5">
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>113</v>
-      </c>
-      <c r="B39" s="8">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0</v>
+        <v>202</v>
+      </c>
+      <c r="B39" s="5">
+        <v>211</v>
+      </c>
+      <c r="C39" s="5">
+        <v>181</v>
+      </c>
+      <c r="D39" s="5">
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <f>SUM(B21:B39)</f>
-        <v>10000</v>
-      </c>
-      <c r="C40" s="1">
-        <f>SUM(C21:C39)</f>
-        <v>10000</v>
-      </c>
-      <c r="D40" s="1">
-        <f>SUM(D21:D39)</f>
-        <v>10000</v>
+      <c r="A40" s="3">
+        <v>203</v>
+      </c>
+      <c r="B40" s="5">
+        <v>418</v>
+      </c>
+      <c r="C40" s="5">
+        <v>402</v>
+      </c>
+      <c r="D40" s="5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>204</v>
+      </c>
+      <c r="B41" s="5">
+        <v>702</v>
+      </c>
+      <c r="C41" s="5">
+        <v>723</v>
+      </c>
+      <c r="D41" s="5">
+        <v>744</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="A42" s="3">
+        <v>205</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1082</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1037</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1051</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>2</v>
+      <c r="A43" s="3">
+        <v>206</v>
+      </c>
+      <c r="B43" s="5">
+        <v>1358</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1400</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1352</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>192</v>
-      </c>
-      <c r="B44" s="6">
-        <v>2</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0</v>
+        <v>207</v>
+      </c>
+      <c r="B44" s="5">
+        <v>1554</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1569</v>
       </c>
       <c r="D44" s="5">
-        <v>0</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>193</v>
-      </c>
-      <c r="B45" s="6">
-        <v>10</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0</v>
+        <v>208</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1443</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1506</v>
       </c>
       <c r="D45" s="5">
-        <v>0</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>194</v>
-      </c>
-      <c r="B46" s="6">
-        <v>19</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0</v>
+        <v>209</v>
+      </c>
+      <c r="B46" s="5">
+        <v>1223</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1179</v>
       </c>
       <c r="D46" s="5">
-        <v>0</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>195</v>
-      </c>
-      <c r="B47" s="6">
-        <v>99</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0</v>
+        <v>210</v>
+      </c>
+      <c r="B47" s="5">
+        <v>875</v>
+      </c>
+      <c r="C47" s="5">
+        <v>872</v>
       </c>
       <c r="D47" s="5">
-        <v>0</v>
+        <v>864</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>196</v>
-      </c>
-      <c r="B48" s="6">
-        <v>262</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="B48" s="5">
+        <v>539</v>
+      </c>
+      <c r="C48" s="5">
+        <v>538</v>
       </c>
       <c r="D48" s="5">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>197</v>
-      </c>
-      <c r="B49" s="6">
-        <v>643</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0</v>
+        <v>212</v>
+      </c>
+      <c r="B49" s="5">
+        <v>258</v>
+      </c>
+      <c r="C49" s="5">
+        <v>280</v>
       </c>
       <c r="D49" s="5">
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>198</v>
-      </c>
-      <c r="B50" s="6">
-        <v>1135</v>
-      </c>
-      <c r="C50" s="4">
-        <v>0</v>
+        <v>213</v>
+      </c>
+      <c r="B50" s="5">
+        <v>140</v>
+      </c>
+      <c r="C50" s="5">
+        <v>129</v>
       </c>
       <c r="D50" s="5">
-        <v>5</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>199</v>
-      </c>
-      <c r="B51" s="6">
-        <v>1664</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0</v>
+        <v>214</v>
+      </c>
+      <c r="B51" s="5">
+        <v>52</v>
+      </c>
+      <c r="C51" s="5">
+        <v>45</v>
       </c>
       <c r="D51" s="5">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>200</v>
-      </c>
-      <c r="B52" s="6">
-        <v>1904</v>
-      </c>
-      <c r="C52" s="4">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="B52" s="5">
+        <v>25</v>
+      </c>
+      <c r="C52" s="5">
+        <v>13</v>
       </c>
       <c r="D52" s="5">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>201</v>
-      </c>
-      <c r="B53" s="6">
-        <v>1744</v>
-      </c>
-      <c r="C53" s="4">
-        <v>0</v>
+        <v>216</v>
+      </c>
+      <c r="B53" s="5">
+        <v>8</v>
+      </c>
+      <c r="C53" s="5">
+        <v>7</v>
       </c>
       <c r="D53" s="5">
-        <v>93</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>202</v>
-      </c>
-      <c r="B54" s="6">
-        <v>1285</v>
-      </c>
-      <c r="C54" s="4">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
       </c>
       <c r="D54" s="5">
-        <v>185</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>203</v>
-      </c>
-      <c r="B55" s="6">
-        <v>704</v>
-      </c>
-      <c r="C55" s="4">
+        <v>218</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="5">
         <v>1</v>
       </c>
-      <c r="D55" s="5">
-        <v>417</v>
+      <c r="D55" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>204</v>
-      </c>
-      <c r="B56" s="6">
-        <v>334</v>
+        <v>219</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0</v>
       </c>
       <c r="C56" s="4">
-        <v>10</v>
-      </c>
-      <c r="D56" s="5">
-        <v>680</v>
+        <v>0</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>205</v>
-      </c>
-      <c r="B57" s="6">
-        <v>125</v>
-      </c>
-      <c r="C57" s="4">
-        <v>24</v>
-      </c>
-      <c r="D57" s="5">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>206</v>
-      </c>
-      <c r="B58" s="6">
-        <v>54</v>
-      </c>
-      <c r="C58" s="4">
-        <v>66</v>
-      </c>
-      <c r="D58" s="5">
-        <v>1396</v>
+      <c r="B57">
+        <f>SUM(B34:B56)</f>
+        <v>10000</v>
+      </c>
+      <c r="C57" s="1">
+        <f>SUM(C34:C56)</f>
+        <v>10000</v>
+      </c>
+      <c r="D57" s="1">
+        <f>SUM(D34:D56)</f>
+        <v>10000</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>207</v>
-      </c>
-      <c r="B59" s="6">
-        <v>14</v>
-      </c>
-      <c r="C59" s="4">
-        <v>195</v>
-      </c>
-      <c r="D59" s="5">
-        <v>1531</v>
-      </c>
+      <c r="A59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>208</v>
-      </c>
-      <c r="B60" s="6">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C60" s="4">
-        <v>380</v>
-      </c>
-      <c r="D60" s="5">
-        <v>1520</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>209</v>
-      </c>
-      <c r="B61" s="6">
-        <v>0</v>
-      </c>
-      <c r="C61" s="4">
-        <v>735</v>
+        <v>334</v>
+      </c>
+      <c r="B61" s="5">
+        <v>25</v>
+      </c>
+      <c r="C61" s="5">
+        <v>37</v>
       </c>
       <c r="D61" s="5">
-        <v>1238</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>210</v>
-      </c>
-      <c r="B62" s="6">
-        <v>0</v>
-      </c>
-      <c r="C62" s="4">
-        <v>1088</v>
+        <v>335</v>
+      </c>
+      <c r="B62" s="5">
+        <v>502</v>
+      </c>
+      <c r="C62" s="5">
+        <v>476</v>
       </c>
       <c r="D62" s="5">
-        <v>884</v>
+        <v>488</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>211</v>
-      </c>
-      <c r="B63" s="6">
-        <v>0</v>
-      </c>
-      <c r="C63" s="4">
-        <v>1386</v>
+        <v>336</v>
+      </c>
+      <c r="B63" s="5">
+        <v>1516</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1458</v>
       </c>
       <c r="D63" s="5">
-        <v>489</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>212</v>
-      </c>
-      <c r="B64" s="6">
-        <v>0</v>
-      </c>
-      <c r="C64" s="4">
-        <v>1600</v>
+        <v>337</v>
+      </c>
+      <c r="B64" s="5">
+        <v>2066</v>
+      </c>
+      <c r="C64" s="5">
+        <v>2070</v>
       </c>
       <c r="D64" s="5">
-        <v>268</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>213</v>
-      </c>
-      <c r="B65" s="6">
-        <v>0</v>
-      </c>
-      <c r="C65" s="4">
-        <v>1512</v>
+        <v>338</v>
+      </c>
+      <c r="B65" s="5">
+        <v>2022</v>
+      </c>
+      <c r="C65" s="5">
+        <v>2007</v>
       </c>
       <c r="D65" s="5">
-        <v>107</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>214</v>
-      </c>
-      <c r="B66" s="6">
-        <v>0</v>
-      </c>
-      <c r="C66" s="4">
-        <v>1255</v>
+        <v>339</v>
+      </c>
+      <c r="B66" s="5">
+        <v>1517</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1617</v>
       </c>
       <c r="D66" s="5">
-        <v>57</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>215</v>
-      </c>
-      <c r="B67" s="6">
-        <v>0</v>
-      </c>
-      <c r="C67" s="4">
-        <v>847</v>
+        <v>340</v>
+      </c>
+      <c r="B67" s="5">
+        <v>1083</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1010</v>
       </c>
       <c r="D67" s="5">
-        <v>17</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>216</v>
-      </c>
-      <c r="B68" s="6">
-        <v>0</v>
-      </c>
-      <c r="C68" s="4">
-        <v>490</v>
+        <v>341</v>
+      </c>
+      <c r="B68" s="5">
+        <v>595</v>
+      </c>
+      <c r="C68" s="5">
+        <v>636</v>
       </c>
       <c r="D68" s="5">
-        <v>5</v>
+        <v>601</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>217</v>
-      </c>
-      <c r="B69" s="6">
-        <v>0</v>
-      </c>
-      <c r="C69" s="4">
-        <v>253</v>
+        <v>342</v>
+      </c>
+      <c r="B69" s="5">
+        <v>319</v>
+      </c>
+      <c r="C69" s="5">
+        <v>345</v>
       </c>
       <c r="D69" s="5">
-        <v>4</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>218</v>
-      </c>
-      <c r="B70" s="6">
-        <v>0</v>
-      </c>
-      <c r="C70" s="4">
-        <v>104</v>
+        <v>343</v>
+      </c>
+      <c r="B70" s="5">
+        <v>195</v>
+      </c>
+      <c r="C70" s="5">
+        <v>173</v>
       </c>
       <c r="D70" s="5">
-        <v>0</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>219</v>
-      </c>
-      <c r="B71" s="6">
-        <v>0</v>
-      </c>
-      <c r="C71" s="4">
-        <v>32</v>
+        <v>344</v>
+      </c>
+      <c r="B71" s="5">
+        <v>82</v>
+      </c>
+      <c r="C71" s="5">
+        <v>89</v>
       </c>
       <c r="D71" s="5">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>220</v>
-      </c>
-      <c r="B72" s="6">
-        <v>0</v>
-      </c>
-      <c r="C72" s="4">
-        <v>15</v>
+        <v>345</v>
+      </c>
+      <c r="B72" s="5">
+        <v>43</v>
+      </c>
+      <c r="C72" s="5">
+        <v>56</v>
       </c>
       <c r="D72" s="5">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>221</v>
-      </c>
-      <c r="B73" s="6">
-        <v>0</v>
-      </c>
-      <c r="C73" s="4">
-        <v>4</v>
+        <v>346</v>
+      </c>
+      <c r="B73" s="5">
+        <v>25</v>
+      </c>
+      <c r="C73" s="5">
+        <v>14</v>
       </c>
       <c r="D73" s="5">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>222</v>
-      </c>
-      <c r="B74" s="6">
-        <v>0</v>
-      </c>
-      <c r="C74" s="4">
-        <v>2</v>
+        <v>347</v>
+      </c>
+      <c r="B74" s="5">
+        <v>4</v>
+      </c>
+      <c r="C74" s="5">
+        <v>4</v>
       </c>
       <c r="D74" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>223</v>
-      </c>
-      <c r="B75" s="6">
+        <v>348</v>
+      </c>
+      <c r="B75" s="5">
+        <v>4</v>
+      </c>
+      <c r="C75" s="5">
+        <v>6</v>
+      </c>
+      <c r="D75" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>349</v>
+      </c>
+      <c r="B76" s="5">
+        <v>1</v>
+      </c>
+      <c r="C76" s="5">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>350</v>
+      </c>
+      <c r="B77" s="5">
         <v>0</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C77" s="5">
+        <v>0</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>351</v>
+      </c>
+      <c r="B78" s="4">
         <v>1</v>
       </c>
-      <c r="D75" s="5">
+      <c r="C78" s="4">
+        <v>1</v>
+      </c>
+      <c r="D78" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <f>SUM(B44:B75)</f>
-        <v>10000</v>
-      </c>
-      <c r="C76" s="1">
-        <f>SUM(C44:C75)</f>
-        <v>10000</v>
-      </c>
-      <c r="D76" s="1">
-        <f>SUM(D44:D75)</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="1">
+        <f>SUM(B61:B78)</f>
+        <v>10000</v>
+      </c>
+      <c r="C79" s="1">
+        <f>SUM(C61:C78)</f>
+        <v>10000</v>
+      </c>
+      <c r="D79" s="1">
+        <f>SUM(D61:D78)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>334</v>
-      </c>
-      <c r="B80" s="6">
-        <v>90</v>
-      </c>
-      <c r="C80" s="4">
-        <v>119</v>
-      </c>
-      <c r="D80" s="5">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>335</v>
-      </c>
-      <c r="B81" s="6">
-        <v>776</v>
-      </c>
-      <c r="C81" s="4">
-        <v>762</v>
-      </c>
-      <c r="D81" s="5">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>336</v>
-      </c>
-      <c r="B82" s="6">
-        <v>1737</v>
-      </c>
-      <c r="C82" s="4">
-        <v>1705</v>
-      </c>
-      <c r="D82" s="5">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>337</v>
-      </c>
-      <c r="B83" s="6">
-        <v>2107</v>
-      </c>
-      <c r="C83" s="4">
-        <v>2150</v>
-      </c>
-      <c r="D83" s="5">
-        <v>2107</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>338</v>
-      </c>
-      <c r="B84" s="6">
-        <v>1937</v>
-      </c>
-      <c r="C84" s="4">
-        <v>1817</v>
+        <v>500</v>
+      </c>
+      <c r="B84" s="5">
+        <v>280</v>
+      </c>
+      <c r="C84" s="5">
+        <v>298</v>
       </c>
       <c r="D84" s="5">
-        <v>1846</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>339</v>
-      </c>
-      <c r="B85" s="6">
-        <v>1414</v>
-      </c>
-      <c r="C85" s="4">
-        <v>1398</v>
+        <v>501</v>
+      </c>
+      <c r="B85" s="5">
+        <v>2048</v>
+      </c>
+      <c r="C85" s="5">
+        <v>1965</v>
       </c>
       <c r="D85" s="5">
-        <v>1379</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>340</v>
-      </c>
-      <c r="B86" s="6">
-        <v>846</v>
-      </c>
-      <c r="C86" s="4">
-        <v>919</v>
+        <v>502</v>
+      </c>
+      <c r="B86" s="5">
+        <v>2669</v>
+      </c>
+      <c r="C86" s="5">
+        <v>2695</v>
       </c>
       <c r="D86" s="5">
-        <v>907</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>341</v>
-      </c>
-      <c r="B87" s="6">
-        <v>518</v>
-      </c>
-      <c r="C87" s="4">
-        <v>572</v>
+        <v>503</v>
+      </c>
+      <c r="B87" s="5">
+        <v>2107</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2166</v>
       </c>
       <c r="D87" s="5">
-        <v>540</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>342</v>
-      </c>
-      <c r="B88" s="6">
-        <v>301</v>
-      </c>
-      <c r="C88" s="4">
-        <v>299</v>
+        <v>504</v>
+      </c>
+      <c r="B88" s="5">
+        <v>1379</v>
+      </c>
+      <c r="C88" s="5">
+        <v>1405</v>
       </c>
       <c r="D88" s="5">
-        <v>289</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>343</v>
-      </c>
-      <c r="B89" s="6">
-        <v>149</v>
-      </c>
-      <c r="C89" s="4">
-        <v>137</v>
+        <v>505</v>
+      </c>
+      <c r="B89" s="5">
+        <v>776</v>
+      </c>
+      <c r="C89" s="5">
+        <v>756</v>
       </c>
       <c r="D89" s="5">
-        <v>150</v>
+        <v>792</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>344</v>
-      </c>
-      <c r="B90" s="6">
-        <v>66</v>
-      </c>
-      <c r="C90" s="4">
-        <v>69</v>
+        <v>506</v>
+      </c>
+      <c r="B90" s="5">
+        <v>393</v>
+      </c>
+      <c r="C90" s="5">
+        <v>415</v>
       </c>
       <c r="D90" s="5">
-        <v>68</v>
+        <v>403</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>345</v>
-      </c>
-      <c r="B91" s="6">
-        <v>34</v>
-      </c>
-      <c r="C91" s="4">
-        <v>30</v>
+        <v>507</v>
+      </c>
+      <c r="B91" s="5">
+        <v>197</v>
+      </c>
+      <c r="C91" s="5">
+        <v>183</v>
       </c>
       <c r="D91" s="5">
-        <v>35</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>346</v>
-      </c>
-      <c r="B92" s="6">
-        <v>14</v>
-      </c>
-      <c r="C92" s="4">
-        <v>10</v>
+        <v>508</v>
+      </c>
+      <c r="B92" s="5">
+        <v>84</v>
+      </c>
+      <c r="C92" s="5">
+        <v>73</v>
       </c>
       <c r="D92" s="5">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>347</v>
-      </c>
-      <c r="B93" s="6">
-        <v>7</v>
-      </c>
-      <c r="C93" s="4">
-        <v>9</v>
+        <v>509</v>
+      </c>
+      <c r="B93" s="5">
+        <v>39</v>
+      </c>
+      <c r="C93" s="5">
+        <v>25</v>
       </c>
       <c r="D93" s="5">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>348</v>
-      </c>
-      <c r="B94" s="6">
-        <v>2</v>
-      </c>
-      <c r="C94" s="4">
-        <v>3</v>
+        <v>510</v>
+      </c>
+      <c r="B94" s="5">
+        <v>19</v>
+      </c>
+      <c r="C94" s="5">
+        <v>12</v>
       </c>
       <c r="D94" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>349</v>
-      </c>
-      <c r="B95" s="6">
-        <v>1</v>
-      </c>
-      <c r="C95" s="4">
-        <v>1</v>
+        <v>511</v>
+      </c>
+      <c r="B95" s="5">
+        <v>6</v>
+      </c>
+      <c r="C95" s="5">
+        <v>4</v>
       </c>
       <c r="D95" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>350</v>
-      </c>
-      <c r="B96" s="6">
+        <v>512</v>
+      </c>
+      <c r="B96" s="5">
+        <v>3</v>
+      </c>
+      <c r="C96" s="5">
+        <v>0</v>
+      </c>
+      <c r="D96" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>513</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0</v>
+      </c>
+      <c r="C97" s="5">
+        <v>2</v>
+      </c>
+      <c r="D97" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>514</v>
+      </c>
+      <c r="B98" s="5">
+        <v>0</v>
+      </c>
+      <c r="C98" s="5">
         <v>1</v>
       </c>
-      <c r="C96" s="4">
+      <c r="D98" s="5">
         <v>0</v>
       </c>
-      <c r="D96" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1">
-        <f>SUM(B80:B96)</f>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1">
+        <f>SUM(B84:B98)</f>
         <v>10000</v>
       </c>
-      <c r="C97" s="1">
-        <f>SUM(C80:C96)</f>
+      <c r="C99" s="1">
+        <f>SUM(C84:C98)</f>
         <v>10000</v>
       </c>
-      <c r="D97" s="1">
-        <f>SUM(D80:D96)</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>500</v>
-      </c>
-      <c r="B102" s="10">
-        <v>1089</v>
-      </c>
-      <c r="C102" s="9">
-        <v>1115</v>
-      </c>
-      <c r="D102" s="7">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
-        <v>501</v>
-      </c>
-      <c r="B103" s="10">
-        <v>2612</v>
-      </c>
-      <c r="C103" s="9">
-        <v>2578</v>
-      </c>
-      <c r="D103" s="7">
-        <v>2617</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
-        <v>502</v>
-      </c>
-      <c r="B104" s="10">
-        <v>2521</v>
-      </c>
-      <c r="C104" s="9">
-        <v>2539</v>
-      </c>
-      <c r="D104" s="7">
-        <v>2470</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
-        <v>503</v>
-      </c>
-      <c r="B105" s="10">
-        <v>1730</v>
-      </c>
-      <c r="C105" s="9">
-        <v>1671</v>
-      </c>
-      <c r="D105" s="7">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <v>504</v>
-      </c>
-      <c r="B106" s="10">
-        <v>1046</v>
-      </c>
-      <c r="C106" s="9">
-        <v>1052</v>
-      </c>
-      <c r="D106" s="7">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>505</v>
-      </c>
-      <c r="B107" s="10">
-        <v>536</v>
-      </c>
-      <c r="C107" s="9">
-        <v>563</v>
-      </c>
-      <c r="D107" s="7">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
-        <v>506</v>
-      </c>
-      <c r="B108" s="10">
-        <v>278</v>
-      </c>
-      <c r="C108" s="9">
-        <v>263</v>
-      </c>
-      <c r="D108" s="7">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
-        <v>507</v>
-      </c>
-      <c r="B109" s="10">
-        <v>105</v>
-      </c>
-      <c r="C109" s="9">
-        <v>110</v>
-      </c>
-      <c r="D109" s="7">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
-        <v>508</v>
-      </c>
-      <c r="B110" s="10">
-        <v>43</v>
-      </c>
-      <c r="C110" s="9">
-        <v>61</v>
-      </c>
-      <c r="D110" s="7">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
-        <v>509</v>
-      </c>
-      <c r="B111" s="10">
-        <v>23</v>
-      </c>
-      <c r="C111" s="9">
-        <v>31</v>
-      </c>
-      <c r="D111" s="7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
-        <v>510</v>
-      </c>
-      <c r="B112" s="10">
-        <v>12</v>
-      </c>
-      <c r="C112" s="9">
-        <v>15</v>
-      </c>
-      <c r="D112" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
-        <v>511</v>
-      </c>
-      <c r="B113" s="10">
-        <v>4</v>
-      </c>
-      <c r="C113" s="9">
-        <v>2</v>
-      </c>
-      <c r="D113" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
-        <v>512</v>
-      </c>
-      <c r="B114" s="10">
-        <v>0</v>
-      </c>
-      <c r="C114" s="9">
-        <v>0</v>
-      </c>
-      <c r="D114" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
-        <v>513</v>
-      </c>
-      <c r="B115" s="10">
-        <v>1</v>
-      </c>
-      <c r="C115" s="9">
-        <v>0</v>
-      </c>
-      <c r="D115" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
-        <v>514</v>
-      </c>
-      <c r="B116" s="10">
-        <v>0</v>
-      </c>
-      <c r="C116" s="9">
-        <v>0</v>
-      </c>
-      <c r="D116" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1">
-        <f>SUM(B102:B116)</f>
-        <v>10000</v>
-      </c>
-      <c r="C117" s="1">
-        <f>SUM(C102:C116)</f>
-        <v>10000</v>
-      </c>
-      <c r="D117" s="1">
-        <f>SUM(D102:D116)</f>
+      <c r="D99" s="1">
+        <f>SUM(D84:D98)</f>
         <v>10000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5588,7 +5698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
